--- a/3.安全评估/通用安全评估.xlsx
+++ b/3.安全评估/通用安全评估.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
+  <si>
+    <t>面向用户是谁以及量级（滴滴用户、内部员工、外包员工、合作伙伴、政府部门）</t>
+  </si>
+  <si>
+    <t>数据类型和量级</t>
+  </si>
+  <si>
+    <t>认证授权实现方式</t>
+  </si>
+  <si>
+    <t>关键接口和上下游调用链</t>
+  </si>
+  <si>
+    <t>交互方式（暴露面）：web、api、socket。</t>
+  </si>
+  <si>
+    <t>项目类型是什么：运营平台、云产品、公共服务、金融业务、内部平台、运营活动H5、政府项目、对外合作。</t>
+  </si>
   <si>
     <t>输入验证</t>
   </si>
@@ -106,6 +124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF666666"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>根据《</t>
     </r>
     <r>
@@ -753,7 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF797BAA"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1272,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1281,10 +1305,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,7 +1317,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,13 +1326,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1417,7 +1441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,6 +1462,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1787,1125 +1814,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:A224"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="95.4444444444444" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" ht="31.95" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="156.75" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="93.6" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="140.4" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="46.8" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="78.75" spans="1:1">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="187.95" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="172.35" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="297.15" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="409.5" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="62.4" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="187.2" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="109.2" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="109.95" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="62.4" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="140.4" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="109.2" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" ht="94.35" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="125.55" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="31.95" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="250.35" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="141.15" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="250.35" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="203.55" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" ht="78.75" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" ht="63.15" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="94.35" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" ht="52.2" spans="1:1">
-      <c r="A30" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" ht="31.95" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" ht="172.35" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" ht="94.35" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" ht="31.95" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" ht="125.55" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" ht="109.95" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" ht="109.95" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" ht="31.95" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" ht="125.55" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" ht="125.55" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" ht="187.95" spans="1:1">
-      <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" ht="109.95" spans="1:1">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" ht="125.55" spans="1:1">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" ht="281.55" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" ht="31.95" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" ht="312.75" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" ht="78.75" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" ht="63.15" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" ht="78.75" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" ht="31.95" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" ht="409.5" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" ht="141.15" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" ht="34.8" spans="1:1">
-      <c r="A53" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" ht="31.95" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" ht="234.75" spans="1:1">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" ht="265.95" spans="1:1">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" ht="63.15" spans="1:1">
-      <c r="A57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" ht="125.55" spans="1:1">
-      <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" ht="172.35" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" ht="125.55" spans="1:1">
-      <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" ht="63.15" spans="1:1">
-      <c r="A61" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" ht="156.75" spans="1:1">
-      <c r="A62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" ht="250.35" spans="1:1">
-      <c r="A63" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" ht="187.95" spans="1:1">
-      <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" ht="78.75" spans="1:1">
-      <c r="A65" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" ht="94.35" spans="1:1">
-      <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" ht="156.75" spans="1:1">
-      <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" ht="63.15" spans="1:1">
-      <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" ht="31.95" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" ht="63.15" spans="1:1">
-      <c r="A70" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" ht="63.15" spans="1:1">
-      <c r="A71" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" ht="109.95" spans="1:1">
-      <c r="A72" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" ht="78.75" spans="1:1">
-      <c r="A73" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" ht="109.95" spans="1:1">
-      <c r="A74" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" ht="94.35" spans="1:1">
-      <c r="A75" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" ht="31.95" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" ht="63.15" spans="1:1">
-      <c r="A77" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" ht="63.15" spans="1:1">
-      <c r="A78" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" ht="265.95" spans="1:1">
-      <c r="A79" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" ht="156.75" spans="1:1">
-      <c r="A80" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" ht="78.75" spans="1:1">
-      <c r="A81" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" ht="109.95" spans="1:1">
-      <c r="A82" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" ht="31.95" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" ht="31.95" spans="1:1">
-      <c r="A84" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" ht="78.75" spans="1:1">
-      <c r="A85" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" ht="78.75" spans="1:1">
-      <c r="A86" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" ht="141.15" spans="1:1">
-      <c r="A87" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" ht="141.15" spans="1:1">
-      <c r="A88" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" ht="172.35" spans="1:1">
-      <c r="A89" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" ht="172.35" spans="1:1">
-      <c r="A90" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" ht="281.55" spans="1:1">
-      <c r="A91" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" ht="78.75" spans="1:1">
-      <c r="A92" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" ht="94.35" spans="1:1">
-      <c r="A93" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" ht="172.35" spans="1:1">
-      <c r="A94" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" ht="265.95" spans="1:1">
-      <c r="A95" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" ht="156.75" spans="1:1">
-      <c r="A96" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" ht="109.95" spans="1:1">
-      <c r="A97" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" ht="94.35" spans="1:1">
-      <c r="A98" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" ht="156.75" spans="1:1">
-      <c r="A99" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" ht="31.95" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" ht="203.55" spans="1:1">
-      <c r="A101" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" ht="265.95" spans="1:1">
-      <c r="A102" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" ht="250.35" spans="1:1">
-      <c r="A103" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" ht="156.75" spans="1:1">
-      <c r="A104" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" ht="78.75" spans="1:1">
-      <c r="A105" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" ht="187.95" spans="1:1">
-      <c r="A106" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" ht="281.55" spans="1:1">
-      <c r="A107" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" ht="219.15" spans="1:1">
-      <c r="A108" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" ht="31.95" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" ht="141.15" spans="1:1">
-      <c r="A110" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" ht="187.95" spans="1:1">
-      <c r="A111" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" ht="172.35" spans="1:1">
-      <c r="A112" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" ht="141.15" spans="1:1">
-      <c r="A113" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" ht="172.35" spans="1:1">
-      <c r="A114" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" ht="250.35" spans="1:1">
-      <c r="A115" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" ht="187.95" spans="1:1">
-      <c r="A116" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" ht="156.75" spans="1:1">
-      <c r="A117" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" ht="94.35" spans="1:1">
-      <c r="A118" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" ht="172.35" spans="1:1">
-      <c r="A119" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" ht="94.35" spans="1:1">
-      <c r="A120" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="125.55" spans="1:1">
-      <c r="A121" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" ht="34.8" spans="1:1">
-      <c r="A122" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" ht="31.95" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" ht="250.35" spans="1:1">
-      <c r="A124" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" ht="63.15" spans="1:1">
-      <c r="A125" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" ht="187.95" spans="1:1">
-      <c r="A126" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" ht="141.15" spans="1:1">
-      <c r="A127" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" ht="125.55" spans="1:1">
-      <c r="A128" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" ht="94.35" spans="1:1">
-      <c r="A129" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" ht="31.95" spans="1:1">
-      <c r="A130" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" ht="94.35" spans="1:1">
-      <c r="A131" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" ht="94.35" spans="1:1">
-      <c r="A132" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" ht="78.75" spans="1:1">
-      <c r="A133" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" ht="94.35" spans="1:1">
-      <c r="A134" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" ht="187.95" spans="1:1">
-      <c r="A135" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" ht="47.55" spans="1:1">
-      <c r="A136" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137" ht="47.55" spans="1:1">
-      <c r="A137" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" ht="63.15" spans="1:1">
-      <c r="A138" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="139" ht="31.95" spans="1:1">
-      <c r="A139" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="140" ht="16.35" spans="1:1">
-      <c r="A140" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="141" ht="63.15" spans="1:1">
-      <c r="A141" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" ht="63.15" spans="1:1">
-      <c r="A142" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143" ht="16.35" spans="1:1">
-      <c r="A143" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" ht="63.15" spans="1:1">
-      <c r="A144" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" ht="16.35" spans="1:1">
-      <c r="A145" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" ht="47.55" spans="1:1">
-      <c r="A146" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="147" ht="34.8" spans="1:1">
-      <c r="A147" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" ht="31.95" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" ht="172.35" spans="1:1">
-      <c r="A149" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" ht="141.15" spans="1:1">
-      <c r="A150" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151" ht="156.75" spans="1:1">
-      <c r="A151" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" ht="172.35" spans="1:1">
-      <c r="A152" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" ht="281.55" spans="1:1">
-      <c r="A153" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="154" ht="172.35" spans="1:1">
-      <c r="A154" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="155" ht="94.35" spans="1:1">
-      <c r="A155" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="156" ht="187.95" spans="1:1">
-      <c r="A156" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" ht="78.75" spans="1:1">
-      <c r="A157" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" ht="156.75" spans="1:1">
-      <c r="A158" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" ht="109.95" spans="1:1">
-      <c r="A159" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="160" ht="141.15" spans="1:1">
-      <c r="A160" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" ht="125.55" spans="1:1">
-      <c r="A161" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" ht="203.55" spans="1:1">
-      <c r="A162" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="163" ht="31.95" spans="1:1">
-      <c r="A163" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" ht="63.15" spans="1:1">
-      <c r="A164" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="165" ht="187.95" spans="1:1">
-      <c r="A165" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="166" ht="109.95" spans="1:1">
-      <c r="A166" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="167" ht="141.15" spans="1:1">
-      <c r="A167" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="168" ht="125.55" spans="1:1">
-      <c r="A168" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="169" ht="78.75" spans="1:1">
-      <c r="A169" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" ht="172.35" spans="1:1">
-      <c r="A170" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" ht="203.55" spans="1:1">
-      <c r="A171" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" ht="31.95" spans="1:1">
-      <c r="A172" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="173" ht="156.75" spans="1:1">
-      <c r="A173" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="174" ht="141.15" spans="1:1">
-      <c r="A174" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="175" ht="109.95" spans="1:1">
-      <c r="A175" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" ht="141.15" spans="1:1">
-      <c r="A176" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="177" ht="31.95" spans="1:1">
-      <c r="A177" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="178" ht="141.15" spans="1:1">
-      <c r="A178" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="179" ht="172.35" spans="1:1">
-      <c r="A179" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="180" ht="141.15" spans="1:1">
-      <c r="A180" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="181" ht="141.15" spans="1:1">
-      <c r="A181" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="182" ht="31.95" spans="1:1">
-      <c r="A182" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="183" ht="63.15" spans="1:1">
-      <c r="A183" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184" ht="141.15" spans="1:1">
-      <c r="A184" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" ht="63.15" spans="1:1">
-      <c r="A185" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="186" ht="63.15" spans="1:1">
-      <c r="A186" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="187" ht="34.8" spans="1:1">
-      <c r="A187" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="188" ht="31.95" spans="1:1">
-      <c r="A188" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="189" ht="31.2" spans="1:1">
-      <c r="A189" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="190" ht="93.6" spans="1:1">
-      <c r="A190" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="191" ht="31.2" spans="1:1">
-      <c r="A191" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" ht="140.4" spans="1:1">
-      <c r="A192" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="193" ht="46.8" spans="1:1">
-      <c r="A193" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" ht="94.35" spans="1:1">
-      <c r="A194" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" ht="31.2" spans="1:1">
-      <c r="A195" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196" ht="62.4" spans="1:1">
-      <c r="A196" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="197" ht="78" spans="1:1">
-      <c r="A197" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="198" ht="109.2" spans="1:1">
-      <c r="A198" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="199" ht="140.4" spans="1:1">
-      <c r="A199" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="200" ht="124.8" spans="1:1">
-      <c r="A200" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="201" ht="62.4" spans="1:1">
-      <c r="A201" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="202" ht="47.55" spans="1:1">
-      <c r="A202" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="203" ht="31.2" spans="1:1">
-      <c r="A203" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="204" ht="93.6" spans="1:1">
-      <c r="A204" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="205" ht="202.8" spans="1:1">
-      <c r="A205" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" ht="31.2" spans="1:1">
-      <c r="A206" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" ht="47.55" spans="1:1">
-      <c r="A207" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="208" ht="46.8" spans="1:1">
-      <c r="A208" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="209" ht="124.8" spans="1:1">
-      <c r="A209" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" ht="124.8" spans="1:1">
-      <c r="A210" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="211" ht="187.2" spans="1:1">
-      <c r="A211" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="212" ht="202.8" spans="1:1">
-      <c r="A212" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="213" ht="156.75" spans="1:1">
-      <c r="A213" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="214" ht="109.95" spans="1:1">
-      <c r="A214" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="215" ht="125.55" spans="1:1">
-      <c r="A215" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="216" ht="31.95" spans="1:1">
-      <c r="A216" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" ht="94.35" spans="1:1">
-      <c r="A217" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="218" ht="31.95" spans="1:1">
-      <c r="A218" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="219" ht="125.55" spans="1:1">
-      <c r="A219" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220" ht="125.55" spans="1:1">
-      <c r="A220" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="221" ht="63.15" spans="1:1">
-      <c r="A221" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="222" ht="63.15" spans="1:1">
-      <c r="A222" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="223" ht="109.95" spans="1:1">
-      <c r="A223" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="224" ht="141.15" spans="1:1">
-      <c r="A224" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2918,14 +1862,1128 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:A224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="95.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="16.35" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="16.35" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="16.35" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="16.35" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="16.35" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="31.95" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="47.55" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="16.35" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="16.35" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="16.35" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="16.35" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="31.95" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="16.35" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="31.95" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="31.95" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="16.35" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="16.35" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="16.35" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="17.4" spans="1:1">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="16.35" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" ht="16.35" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="16.35" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" ht="16.35" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="16.35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" ht="16.35" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" ht="16.35" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" ht="16.35" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" ht="16.35" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" ht="16.35" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" ht="16.35" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" ht="16.35" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" ht="16.35" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" ht="31.95" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" ht="16.35" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" ht="31.95" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" ht="16.35" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="16.35" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" ht="16.35" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" ht="16.35" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" ht="47.55" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" ht="16.35" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" ht="17.4" spans="1:1">
+      <c r="A53" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" ht="16.35" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" ht="31.95" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" ht="31.95" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" ht="16.35" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" ht="16.35" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" ht="16.35" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" ht="16.35" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" ht="16.35" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="16.35" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" ht="31.95" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="16.35" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" ht="16.35" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" ht="16.35" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" ht="16.35" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" ht="16.35" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" ht="16.35" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" ht="16.35" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" ht="16.35" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" ht="16.35" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" ht="16.35" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" ht="16.35" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" ht="16.35" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" ht="16.35" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" ht="16.35" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" ht="16.35" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" ht="31.95" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" ht="16.35" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" ht="16.35" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" ht="16.35" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" ht="16.35" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" ht="16.35" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" ht="16.35" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" ht="16.35" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" ht="16.35" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" ht="16.35" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" ht="16.35" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" ht="16.35" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" ht="31.95" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" ht="16.35" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" ht="16.35" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" ht="16.35" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" ht="31.95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" ht="16.35" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" ht="16.35" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" ht="16.35" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" ht="16.35" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" ht="16.35" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" ht="31.95" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" ht="31.95" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" ht="31.95" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" ht="16.35" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" ht="16.35" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" ht="16.35" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" ht="31.95" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" ht="31.95" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" ht="16.35" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" ht="16.35" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" ht="16.35" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" ht="16.35" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" ht="16.35" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" ht="16.35" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="31.95" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" ht="16.35" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" ht="16.35" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" ht="16.35" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" ht="16.35" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" ht="16.35" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" ht="16.35" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" ht="17.4" spans="1:1">
+      <c r="A122" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" ht="16.35" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" ht="31.95" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" ht="16.35" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" ht="16.35" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" ht="16.35" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" ht="16.35" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" ht="16.35" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" ht="16.35" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" ht="16.35" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" ht="16.35" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" ht="16.35" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" ht="16.35" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" ht="16.35" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" ht="16.35" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" ht="16.35" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" ht="16.35" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" ht="16.35" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" ht="16.35" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" ht="16.35" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" ht="16.35" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" ht="16.35" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" ht="16.35" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" ht="16.35" spans="1:1">
+      <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" ht="16.35" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" ht="17.4" spans="1:1">
+      <c r="A147" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" ht="16.35" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" ht="16.35" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" ht="16.35" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" ht="16.35" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" ht="16.35" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" ht="31.95" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" ht="16.35" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" ht="16.35" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" ht="16.35" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" ht="16.35" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" ht="16.35" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" ht="16.35" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" ht="16.35" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" ht="16.35" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" ht="31.95" spans="1:1">
+      <c r="A162" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" ht="16.35" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" ht="16.35" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" ht="16.35" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" ht="16.35" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" ht="16.35" spans="1:1">
+      <c r="A167" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" ht="16.35" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" ht="16.35" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" ht="16.35" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" ht="31.95" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" ht="16.35" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" ht="16.35" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" ht="16.35" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" ht="16.35" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" ht="16.35" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" ht="16.35" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" ht="16.35" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" ht="16.35" spans="1:1">
+      <c r="A179" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" ht="16.35" spans="1:1">
+      <c r="A180" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" ht="16.35" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" ht="16.35" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" ht="16.35" spans="1:1">
+      <c r="A183" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" ht="16.35" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" ht="16.35" spans="1:1">
+      <c r="A185" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" ht="16.35" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" ht="17.4" spans="1:1">
+      <c r="A187" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" ht="16.35" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" ht="15.6" spans="1:1">
+      <c r="A189" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" ht="15.6" spans="1:1">
+      <c r="A190" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" ht="15.6" spans="1:1">
+      <c r="A191" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" ht="15.6" spans="1:1">
+      <c r="A192" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" ht="15.6" spans="1:1">
+      <c r="A193" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" ht="16.35" spans="1:1">
+      <c r="A194" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" ht="15.6" spans="1:1">
+      <c r="A195" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" ht="15.6" spans="1:1">
+      <c r="A196" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" ht="15.6" spans="1:1">
+      <c r="A197" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" ht="15.6" spans="1:1">
+      <c r="A198" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" ht="15.6" spans="1:1">
+      <c r="A199" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" ht="15.6" spans="1:1">
+      <c r="A200" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" ht="15.6" spans="1:1">
+      <c r="A201" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" ht="16.35" spans="1:1">
+      <c r="A202" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" ht="15.6" spans="1:1">
+      <c r="A203" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" ht="15.6" spans="1:1">
+      <c r="A204" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" ht="15.6" spans="1:1">
+      <c r="A205" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" ht="15.6" spans="1:1">
+      <c r="A206" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" ht="16.35" spans="1:1">
+      <c r="A207" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" ht="15.6" spans="1:1">
+      <c r="A208" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" ht="15.6" spans="1:1">
+      <c r="A209" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" ht="15.6" spans="1:1">
+      <c r="A210" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" ht="15.6" spans="1:1">
+      <c r="A211" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" ht="15.6" spans="1:1">
+      <c r="A212" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" ht="16.35" spans="1:1">
+      <c r="A213" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" ht="16.35" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" ht="16.35" spans="1:1">
+      <c r="A215" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" ht="16.35" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" ht="16.35" spans="1:1">
+      <c r="A217" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" ht="16.35" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" ht="16.35" spans="1:1">
+      <c r="A219" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" ht="16.35" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" ht="16.35" spans="1:1">
+      <c r="A221" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" ht="16.35" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" ht="16.35" spans="1:1">
+      <c r="A223" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" ht="16.35" spans="1:1">
+      <c r="A224" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
